--- a/files/success-file-example-with-links.xlsx
+++ b/files/success-file-example-with-links.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15E5F0A-498D-4E28-BB32-D915943151C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33E40A3-4BC3-46F3-BA96-F2E5C4513A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Company</t>
   </si>
@@ -40,6 +40,15 @@
     <t>Media URLs</t>
   </si>
   <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
     <t>STRABAG SE VAT AT</t>
   </si>
   <si>
@@ -52,6 +61,9 @@
     <t>https://www.new-business.de/koepfe/detail.php?rubric=K%C3%96PFE&amp;nr=775168</t>
   </si>
   <si>
+    <t xml:space="preserve">Triglavstraße 9 </t>
+  </si>
+  <si>
     <t>https://www.agroindustry.pl/index.php/2021/10/08/transformacja-danone-w-polsce/</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
   </si>
   <si>
     <t>https://www.zerohedge.com/commodities/quite-alarming-uk-energy-crisis-sparks-fresh-chaos-food-suppliers</t>
+  </si>
+  <si>
+    <t>test city</t>
   </si>
   <si>
     <t>https://www.fool.co.uk/investing/2021/09/28/this-ftse-100-stock-has-crashed-by-40-in-the-last-12-months-heres-why-id-buy-it-now/</t>
@@ -492,7 +507,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,9 +528,15 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -523,22 +544,24 @@
     </row>
     <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -547,57 +570,63 @@
     </row>
     <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75">
@@ -605,7 +634,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
@@ -613,7 +642,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -622,7 +651,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -633,7 +662,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
